--- a/biology/Médecine/Yiannis_Laouris/Yiannis_Laouris.xlsx
+++ b/biology/Médecine/Yiannis_Laouris/Yiannis_Laouris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yiannis Laouris (grec moderne : Γιάννης Λαούρης), né en 1958, est un neurophysiologiste et entrepreneur social. Formé en Allemagne et aux États-Unis, il s'intéresse à la science des systèmes et est surtout connu pour ses contributions dans les domaines de la paix et du développement.
 </t>
@@ -511,7 +523,9 @@
           <t>Jeunesse et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yiannis Laouris est né en 1958 à Paphos, à Chypre. Fils du professeur Christodoulos Laouris, il fréquente des écoles de plusieurs districts de Chypre dont The English School, Nicosia (en), le Pancyprian Gymnasium et l'Acropolis Gymnasium. Après le coup d'État de 1974 à Chypre, il travaille comme cryptologue pour la garde nationale de Chypre.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laouris, Y., Kalli-Laouri, J., &amp; Schwartze, P. (1990). The postnatal development of the air righting reflex of albino rats. Quantitative analysis of normal development and the effect of preventing neck-torso and torso-pelvis rotations. Behav. Brain Res., 37, 37-44.
 Laouris, Y., &amp; Windhorst, U. (1989). The relationship between coherence and nonlinear characteristics in Renshaw cell responses to random motor axon stimulation. Neuroscience, 28, 652-634.
